--- a/数据整理/stocks/A股/深证主板/002158-汉钟精机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002158-汉钟精机.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>110012</t>
+          <t>003293</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达科汇灵活配置混合</t>
+          <t>易方达科瑞灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>78.35</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003293</t>
+          <t>110012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达科瑞灵活配置混合</t>
+          <t>易方达科汇灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003886</t>
+          <t>009914</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇安丰利灵活配置混合A</t>
+          <t>富国成长动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>19.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2499</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003887</t>
+          <t>009782</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇安丰利灵活配置混合C</t>
+          <t>富国兴泉回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>25.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100039</t>
+          <t>000940</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国通胀通缩主题混合</t>
+          <t>富国中小盘精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>83.17</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5385</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -678,25 +748,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009782</t>
+          <t>009783</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
+          <t>富国兴泉回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>58.86</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.94</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3983</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009783</t>
+          <t>100039</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
+          <t>富国通胀通缩主题混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>58.86</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -734,26 +824,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000029</t>
+          <t>100016</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国宏观策略灵活配置混合</t>
+          <t>富国天源沪港深平衡混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>86.54</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>65.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -762,26 +862,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005732</t>
+          <t>006430</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国臻选成长灵活配置混合</t>
+          <t>凯石澜龙头经济定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>75.06</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -790,26 +900,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009914</t>
+          <t>000029</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国成长动力混合</t>
+          <t>富国宏观策略灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>76.00</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -818,26 +938,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006430</t>
+          <t>005732</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>凯石澜龙头经济定期开放混合</t>
+          <t>富国臻选成长灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>73.74</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -846,26 +976,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000940</t>
+          <t>003886</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国中小盘精选混合</t>
+          <t>汇安丰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007146</t>
+          <t>003887</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏华研究智选混合</t>
+          <t>汇安丰利灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>007146</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国天源沪港深平衡混合</t>
+          <t>鹏华研究智选混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>65.62</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005357</t>
+          <t>164401</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富国国企改革灵活配置混合</t>
+          <t>前海开源中证健康产业指数</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>84.68</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>164401</t>
+          <t>005357</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>前海开源中证健康产业指数</t>
+          <t>富国国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002158-汉钟精机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002158-汉钟精机.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5740</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2049</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6306</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4884</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4279</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3808</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3673</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2818</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2147</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002158-汉钟精机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002158-汉钟精机.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1752,4 +1753,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4302</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3100</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002158-汉钟精机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002158-汉钟精机.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2341,4 +2342,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002158-汉钟精机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002158-汉钟精机.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2350,7 +2351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,17 +2362,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2381,14 +2402,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.18</v>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8150</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2397,14 +2440,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.19</v>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7816</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2413,14 +2478,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.54</v>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4903</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2429,13 +2516,683 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2750</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1316</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002158-汉钟精机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002158-汉钟精机.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3091,7 +3092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3102,17 +3103,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3122,14 +3143,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.9</v>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3138,14 +3181,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.18</v>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3154,14 +3219,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.19</v>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3170,14 +3257,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.54</v>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3186,13 +3295,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002158-汉钟精机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002158-汉钟精机.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3376,7 +3377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,17 +3388,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3407,14 +3428,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6</v>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4025</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3423,14 +3466,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.9</v>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2657</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3439,14 +3504,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.18</v>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3455,14 +3542,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.19</v>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3471,14 +3580,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.54</v>
+          <t>011470</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴新产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3487,13 +3618,715 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014036</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时成长回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014263</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012097</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009395</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鑫元安鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014037</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时成长回报混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014264</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002158-汉钟精机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002158-汉钟精机.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>2.18</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>6.19</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>4.54</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -600,6 +617,1126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3311</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3543</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011470</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴新产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014036</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时成长回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013526</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014263</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012097</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014037</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时成长回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016256</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>65.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014264</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015937</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1415,7 +2552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1699,7 +2836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2432,594 +3569,6 @@
       </c>
       <c r="H19" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011046</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国优质企业混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4302</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003886</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇安丰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3100</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009782</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>69.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2998</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003887</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇安丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2351</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009381</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇安核心资产混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1747</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>100016</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国天源沪港深平衡混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>65.96</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1535</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000471</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国城镇发展股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.05</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1438</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012096</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鑫元鑫动力混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>59.78</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1349</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009783</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>69.43</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1204</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005732</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国臻选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>84.52</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1127</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011047</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富国优质企业混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>80.86</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>540007</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0239</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008135</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华宸未来价值先锋混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009382</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇安核心资产混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3084,36 +3633,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009782</t>
+          <t>011046</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
+          <t>富国优质企业混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.06</t>
+          <t>10.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.86</t>
+          <t>80.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5740</t>
+          <t>0.4302</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3122,36 +3671,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009914</t>
+          <t>003886</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国成长动力混合</t>
+          <t>汇安丰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.14</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2049</t>
+          <t>0.3100</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3160,36 +3709,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009783</t>
+          <t>009782</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
+          <t>富国兴泉回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.44</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.86</t>
+          <t>69.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6306</t>
+          <t>0.2998</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3198,36 +3747,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000940</t>
+          <t>003887</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国中小盘精选混合</t>
+          <t>汇安丰利灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.07</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4884</t>
+          <t>0.2351</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3236,36 +3785,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>100039</t>
+          <t>009381</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国通胀通缩主题混合</t>
+          <t>汇安核心资产混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.54</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4279</t>
+          <t>0.1747</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -3274,36 +3823,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008372</t>
+          <t>100016</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国阿尔法两年持有期混合</t>
+          <t>富国天源沪港深平衡混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.83</t>
+          <t>65.96</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3808</t>
+          <t>0.1535</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -3312,36 +3861,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>000471</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国天源沪港深平衡混合</t>
+          <t>富国城镇发展股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>68.26</t>
+          <t>91.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3673</t>
+          <t>0.1438</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -3350,36 +3899,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006430</t>
+          <t>012096</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>凯石澜龙头经济定期开放混合</t>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>81.76</t>
+          <t>59.78</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2818</t>
+          <t>0.1349</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -3388,36 +3937,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005732</t>
+          <t>009783</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国臻选成长灵活配置混合</t>
+          <t>富国兴泉回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79.74</t>
+          <t>69.43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2422</t>
+          <t>0.1204</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -3426,36 +3975,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000471</t>
+          <t>005732</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国城镇发展股票</t>
+          <t>富国臻选成长灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>84.52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2147</t>
+          <t>0.1127</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -3464,36 +4013,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010029</t>
+          <t>011047</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国稳进回报12个月持有期混合A</t>
+          <t>富国优质企业混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>23.91</t>
+          <t>80.86</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1895</t>
+          <t>0.0258</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -3502,36 +4051,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007146</t>
+          <t>540007</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏华研究智选混合</t>
+          <t>汇丰晋信中小盘股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>80.27</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0944</t>
+          <t>0.0239</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -3540,36 +4089,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>540007</t>
+          <t>008135</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘股票</t>
+          <t>华宸未来价值先锋混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>91.23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0567</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -3578,36 +4127,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010030</t>
+          <t>009382</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富国稳进回报12个月持有期混合C</t>
+          <t>汇安核心资产混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23.91</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0412</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3672,36 +4221,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009914</t>
+          <t>009782</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国成长动力混合</t>
+          <t>富国兴泉回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.20</t>
+          <t>26.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.00</t>
+          <t>75.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2499</t>
+          <t>1.5740</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3710,36 +4259,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009782</t>
+          <t>009914</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
+          <t>富国成长动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.22</t>
+          <t>17.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>58.86</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9937</t>
+          <t>1.2049</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3748,36 +4297,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000940</t>
+          <t>009783</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国中小盘精选混合</t>
+          <t>富国兴泉回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>10.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>75.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5385</t>
+          <t>0.6306</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3786,36 +4335,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009783</t>
+          <t>000940</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
+          <t>富国中小盘精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.11</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>58.86</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3983</t>
+          <t>0.4884</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3834,22 +4383,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>8.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83.17</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2788</t>
+          <t>0.4279</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3862,36 +4411,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>008372</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国天源沪港深平衡混合</t>
+          <t>富国阿尔法两年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>65.62</t>
+          <t>76.83</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2114</t>
+          <t>0.3808</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -3900,36 +4449,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006430</t>
+          <t>100016</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>凯石澜龙头经济定期开放混合</t>
+          <t>富国天源沪港深平衡混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>73.74</t>
+          <t>68.26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1877</t>
+          <t>0.3673</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -3938,36 +4487,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000029</t>
+          <t>006430</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国宏观策略灵活配置混合</t>
+          <t>凯石澜龙头经济定期开放混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.54</t>
+          <t>81.76</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1428</t>
+          <t>0.2818</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -3986,26 +4535,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>75.06</t>
+          <t>79.74</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1367</t>
+          <t>0.2422</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -4014,36 +4563,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003886</t>
+          <t>000471</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇安丰利灵活配置混合A</t>
+          <t>富国城镇发展股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>90.44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1156</t>
+          <t>0.2147</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -4052,36 +4601,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003887</t>
+          <t>010029</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇安丰利灵活配置混合C</t>
+          <t>富国稳进回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>23.91</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0975</t>
+          <t>0.1895</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -4100,26 +4649,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>80.27</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0830</t>
+          <t>0.0944</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -4128,32 +4677,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>164401</t>
+          <t>540007</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>前海开源中证健康产业指数</t>
+          <t>汇丰晋信中小盘股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0700</t>
+          <t>0.0567</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -4166,36 +4715,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005357</t>
+          <t>010030</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富国国企改革灵活配置混合</t>
+          <t>富国稳进回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>84.68</t>
+          <t>23.91</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0356</t>
+          <t>0.0412</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4204,6 +4753,594 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2499</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5385</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3983</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002158-汉钟精机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002158-汉钟精机.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>4.7</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>2.18</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>6.19</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>4.54</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -616,7 +633,1027 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014036</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>016256</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014263</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015986</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海新兴成长六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>40.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009395</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鑫元安鑫回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014600</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时回报严选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014037</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时成长回报混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012097</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014264</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>016380</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014601</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时回报严选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016381</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>016463</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>016259</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鑫元安鑫回报混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1736,7 +2773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2552,7 +3589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2836,7 +3873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3569,594 +4606,6 @@
       </c>
       <c r="H19" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011046</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国优质企业混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4302</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003886</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇安丰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3100</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009782</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>69.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2998</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003887</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇安丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2351</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009381</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇安核心资产混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1747</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>100016</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国天源沪港深平衡混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>65.96</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1535</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000471</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国城镇发展股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.05</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1438</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012096</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鑫元鑫动力混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>59.78</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1349</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009783</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>69.43</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1204</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005732</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国臻选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>84.52</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1127</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011047</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富国优质企业混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>80.86</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>540007</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0239</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008135</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华宸未来价值先锋混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009382</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇安核心资产混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4221,36 +4670,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009782</t>
+          <t>011046</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
+          <t>富国优质企业混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.06</t>
+          <t>10.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.86</t>
+          <t>80.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5740</t>
+          <t>0.4302</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4259,36 +4708,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009914</t>
+          <t>003886</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国成长动力混合</t>
+          <t>汇安丰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.14</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2049</t>
+          <t>0.3100</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4297,36 +4746,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009783</t>
+          <t>009782</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
+          <t>富国兴泉回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.44</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.86</t>
+          <t>69.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6306</t>
+          <t>0.2998</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4335,36 +4784,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000940</t>
+          <t>003887</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国中小盘精选混合</t>
+          <t>汇安丰利灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.07</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4884</t>
+          <t>0.2351</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4373,36 +4822,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>100039</t>
+          <t>009381</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国通胀通缩主题混合</t>
+          <t>汇安核心资产混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.54</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4279</t>
+          <t>0.1747</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -4411,36 +4860,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008372</t>
+          <t>100016</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国阿尔法两年持有期混合</t>
+          <t>富国天源沪港深平衡混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.83</t>
+          <t>65.96</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3808</t>
+          <t>0.1535</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -4449,36 +4898,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>000471</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国天源沪港深平衡混合</t>
+          <t>富国城镇发展股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>68.26</t>
+          <t>91.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3673</t>
+          <t>0.1438</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -4487,36 +4936,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006430</t>
+          <t>012096</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>凯石澜龙头经济定期开放混合</t>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>81.76</t>
+          <t>59.78</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2818</t>
+          <t>0.1349</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -4525,36 +4974,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005732</t>
+          <t>009783</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国臻选成长灵活配置混合</t>
+          <t>富国兴泉回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79.74</t>
+          <t>69.43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2422</t>
+          <t>0.1204</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -4563,36 +5012,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000471</t>
+          <t>005732</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国城镇发展股票</t>
+          <t>富国臻选成长灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>84.52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2147</t>
+          <t>0.1127</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -4601,36 +5050,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010029</t>
+          <t>011047</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国稳进回报12个月持有期混合A</t>
+          <t>富国优质企业混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>23.91</t>
+          <t>80.86</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1895</t>
+          <t>0.0258</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -4639,36 +5088,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007146</t>
+          <t>540007</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏华研究智选混合</t>
+          <t>汇丰晋信中小盘股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>80.27</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0944</t>
+          <t>0.0239</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -4677,36 +5126,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>540007</t>
+          <t>008135</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘股票</t>
+          <t>华宸未来价值先锋混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>91.23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0567</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -4715,36 +5164,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010030</t>
+          <t>009382</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富国稳进回报12个月持有期混合C</t>
+          <t>汇安核心资产混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23.91</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0412</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4809,36 +5258,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009914</t>
+          <t>009782</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国成长动力混合</t>
+          <t>富国兴泉回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.20</t>
+          <t>26.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.00</t>
+          <t>75.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2499</t>
+          <t>1.5740</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4847,36 +5296,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009782</t>
+          <t>009914</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
+          <t>富国成长动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.22</t>
+          <t>17.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>58.86</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9937</t>
+          <t>1.2049</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4885,36 +5334,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000940</t>
+          <t>009783</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国中小盘精选混合</t>
+          <t>富国兴泉回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>10.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>75.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5385</t>
+          <t>0.6306</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4923,36 +5372,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009783</t>
+          <t>000940</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
+          <t>富国中小盘精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.11</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>58.86</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3983</t>
+          <t>0.4884</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -4971,22 +5420,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>8.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83.17</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2788</t>
+          <t>0.4279</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -4999,36 +5448,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>008372</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国天源沪港深平衡混合</t>
+          <t>富国阿尔法两年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>65.62</t>
+          <t>76.83</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2114</t>
+          <t>0.3808</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -5037,36 +5486,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006430</t>
+          <t>100016</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>凯石澜龙头经济定期开放混合</t>
+          <t>富国天源沪港深平衡混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>73.74</t>
+          <t>68.26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1877</t>
+          <t>0.3673</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -5075,36 +5524,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000029</t>
+          <t>006430</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国宏观策略灵活配置混合</t>
+          <t>凯石澜龙头经济定期开放混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.54</t>
+          <t>81.76</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1428</t>
+          <t>0.2818</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -5123,26 +5572,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>75.06</t>
+          <t>79.74</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1367</t>
+          <t>0.2422</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -5151,36 +5600,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003886</t>
+          <t>000471</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇安丰利灵活配置混合A</t>
+          <t>富国城镇发展股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>90.44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1156</t>
+          <t>0.2147</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -5189,36 +5638,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003887</t>
+          <t>010029</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇安丰利灵活配置混合C</t>
+          <t>富国稳进回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>23.91</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0975</t>
+          <t>0.1895</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -5237,26 +5686,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>80.27</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0830</t>
+          <t>0.0944</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -5265,32 +5714,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>164401</t>
+          <t>540007</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>前海开源中证健康产业指数</t>
+          <t>汇丰晋信中小盘股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0700</t>
+          <t>0.0567</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -5303,36 +5752,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005357</t>
+          <t>010030</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富国国企改革灵活配置混合</t>
+          <t>富国稳进回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>84.68</t>
+          <t>23.91</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0356</t>
+          <t>0.0412</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5346,128 +5795,584 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003293</t>
+          <t>009914</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达科瑞灵活配置混合</t>
+          <t>富国成长动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>19.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>76.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2892</t>
+          <t>1.2499</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5385</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3983</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>110012</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达科汇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1255</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>